--- a/data/income_statement/3digits/total/881_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/881_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>881-Social work activities without accommodation for the elderly and disabled</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>881-Social work activities without accommodation for the elderly and disabled</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>69572.23249000001</v>
@@ -959,16 +865,16 @@
         <v>125678.07015</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>151275.14012</v>
+        <v>152357.63974</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>150815.86347</v>
+        <v>151595.7478</v>
       </c>
       <c r="H5" s="47" t="n">
         <v>162722.98399</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>86699.16768</v>
+        <v>86699.16768000001</v>
       </c>
       <c r="J5" s="47" t="n">
         <v>137452.05993</v>
@@ -977,16 +883,21 @@
         <v>146182.36814</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>207549.38696</v>
+        <v>207791.9747</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>292033.02363</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>298216.45809</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>270443.396</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>67542.55347</v>
@@ -998,10 +909,10 @@
         <v>120969.92558</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>147654.38318</v>
+        <v>148692.69789</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>147562.96967</v>
+        <v>148342.854</v>
       </c>
       <c r="H6" s="48" t="n">
         <v>160880.93056</v>
@@ -1016,16 +927,21 @@
         <v>142809.6248</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>200360.30119</v>
+        <v>200599.64529</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>271881.65423</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>277956.90281</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>187380.263</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>336.44159</v>
@@ -1058,13 +974,18 @@
         <v>3146.86383</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>13551.36115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>13545.69465</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>61941.604</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>1693.23743</v>
@@ -1076,7 +997,7 @@
         <v>4673.48116</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>3526.32017</v>
+        <v>3570.50508</v>
       </c>
       <c r="G8" s="48" t="n">
         <v>3060.22477</v>
@@ -1094,16 +1015,21 @@
         <v>3262.21619</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>4042.22194</v>
+        <v>4045.46558</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>6600.00825</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>6713.86063</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>21121.529</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>109.0721</v>
@@ -1138,11 +1064,16 @@
       <c r="M9" s="47" t="n">
         <v>1.26942</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>54.276</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>46.8421</v>
@@ -1177,11 +1108,16 @@
       <c r="M10" s="48" t="n">
         <v>1.26942</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>12.627</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>62.23</v>
@@ -1196,7 +1132,7 @@
         <v>3.18301</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>0.05652</v>
+        <v>0.05651999999999999</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>0.03468</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>41.649</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>69463.16039</v>
@@ -1271,16 +1217,16 @@
         <v>125620.74118</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>151264.98734</v>
+        <v>152347.48696</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>150802.89633</v>
+        <v>151582.78066</v>
       </c>
       <c r="H13" s="47" t="n">
         <v>162721.72383</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>86655.00890999999</v>
+        <v>86655.00891</v>
       </c>
       <c r="J13" s="47" t="n">
         <v>137445.80624</v>
@@ -1289,16 +1235,21 @@
         <v>146182.36814</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>207542.84054</v>
+        <v>207785.42828</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>292031.75421</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>298215.18867</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>270389.12</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>43682.72088</v>
@@ -1307,13 +1258,13 @@
         <v>64858.03856</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>81359.86673000001</v>
+        <v>81359.86672999999</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>107788.94178</v>
+        <v>108814.29521</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>102781.62328</v>
+        <v>103368.35971</v>
       </c>
       <c r="H14" s="47" t="n">
         <v>106781.97085</v>
@@ -1328,16 +1279,21 @@
         <v>107501.85484</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>159843.37195</v>
+        <v>160070.20282</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>228025.18629</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>230472.96739</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>135116.825</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>355.19003</v>
@@ -1372,11 +1328,16 @@
       <c r="M15" s="48" t="n">
         <v>6852.60374</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>12375.321</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>1204.98053</v>
@@ -1388,7 +1349,7 @@
         <v>2286.32481</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1887.81839</v>
+        <v>1916.66159</v>
       </c>
       <c r="G16" s="48" t="n">
         <v>1754.93796</v>
@@ -1411,14 +1372,19 @@
       <c r="M16" s="48" t="n">
         <v>6892.763660000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="48" t="n">
+        <v>2107.941</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>42111.94602999999</v>
+        <v>42111.94603</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>62795.39277000001</v>
@@ -1427,13 +1393,13 @@
         <v>74894.22559999999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>100985.6127</v>
+        <v>101982.12293</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>94911.05261</v>
+        <v>95497.78904</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>97866.34232</v>
+        <v>97866.34232000001</v>
       </c>
       <c r="I17" s="48" t="n">
         <v>59293.81879999999</v>
@@ -1445,16 +1411,21 @@
         <v>100107.20332</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>148964.66637</v>
+        <v>149191.49724</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>213407.9092</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>215855.6903</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>119530.836</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>10.60429</v>
@@ -1489,26 +1460,31 @@
       <c r="M18" s="48" t="n">
         <v>871.90969</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>1102.727</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>25780.43951</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>33531.99634000001</v>
+        <v>33531.99634</v>
       </c>
       <c r="E19" s="47" t="n">
         <v>44260.87445</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>43476.04555999999</v>
+        <v>43533.19174999999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>48021.27305</v>
+        <v>48214.42095</v>
       </c>
       <c r="H19" s="47" t="n">
         <v>55939.75298</v>
@@ -1523,16 +1499,21 @@
         <v>38680.5133</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>47699.46859</v>
+        <v>47715.22546</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>64006.56792</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>67742.22128</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>135272.295</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>19727.10707</v>
@@ -1544,13 +1525,13 @@
         <v>33230.17117</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>31727.65613</v>
+        <v>31752.37638</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>37453.61807000001</v>
+        <v>37453.61807</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>43604.95749</v>
+        <v>43604.95748999999</v>
       </c>
       <c r="I20" s="47" t="n">
         <v>18992.21771</v>
@@ -1562,16 +1543,21 @@
         <v>30779.91811</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>38911.76338</v>
+        <v>38944.18207</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>61382.63619</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>63987.23226999999</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>148348.083</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>8.01788</v>
@@ -1606,17 +1592,22 @@
       <c r="M21" s="48" t="n">
         <v>241.56833</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>139.382</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>705.5896300000001</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>895.1429200000001</v>
+        <v>895.14292</v>
       </c>
       <c r="E22" s="48" t="n">
         <v>1489.5832</v>
@@ -1640,16 +1631,21 @@
         <v>987.63867</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>4767.05392</v>
+        <v>4786.91493</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>20433.96652</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>19257.85394</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>89112.789</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>19013.49956</v>
@@ -1661,7 +1657,7 @@
         <v>31729.83944</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>29772.08573</v>
+        <v>29796.80598</v>
       </c>
       <c r="G23" s="48" t="n">
         <v>35264.19963</v>
@@ -1679,67 +1675,77 @@
         <v>29527.84053</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>33955.57288</v>
+        <v>33968.13056000001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>40707.10133999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>44487.81</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>59095.912</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>6053.33244</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>6098.020329999999</v>
+        <v>6098.02033</v>
       </c>
       <c r="E24" s="47" t="n">
         <v>11030.70328</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>11748.38943</v>
+        <v>11780.81537</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>10567.65498</v>
+        <v>10760.80288</v>
       </c>
       <c r="H24" s="47" t="n">
         <v>12334.79549</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>4876.680300000001</v>
+        <v>4876.6803</v>
       </c>
       <c r="J24" s="47" t="n">
         <v>6844.05573</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>7900.59519</v>
+        <v>7900.595189999999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>8787.70521</v>
+        <v>8771.043390000001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2623.931729999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>3754.98901</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-13075.788</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>528.59802</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>458.07189</v>
+        <v>458.0718899999999</v>
       </c>
       <c r="E25" s="47" t="n">
         <v>393.02665</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>457.40517</v>
+        <v>472.85155</v>
       </c>
       <c r="G25" s="47" t="n">
         <v>260.4145</v>
@@ -1757,16 +1763,21 @@
         <v>1098.90355</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>885.5346900000001</v>
+        <v>885.53469</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>2012.33613</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1943.57107</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1804.01</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>179.18637</v>
@@ -1778,7 +1789,7 @@
         <v>8.11694</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>0</v>
+        <v>9.206569999999999</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>34.06504</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>83.61498</v>
@@ -1877,13 +1898,18 @@
         <v>118.03905</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>98.29506000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>98.29505999999999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>90.801</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0.413</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0</v>
@@ -1957,23 +1988,28 @@
       <c r="M30" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>3.99755</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>0.6968800000000001</v>
+        <v>0.6968799999999999</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>5.4538</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>26.04187</v>
+        <v>32.28168</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>12.21771</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>175.55127</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>0.802</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>8.071399999999999</v>
@@ -2033,13 +2074,18 @@
         <v>176.35534</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>47.43568</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>110.58488</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>583.847</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>59.33</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>253.72772</v>
@@ -2132,7 +2188,7 @@
         <v>331.06542</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>68.64805</v>
+        <v>68.64804999999998</v>
       </c>
       <c r="H35" s="48" t="n">
         <v>293.4982</v>
@@ -2150,13 +2206,18 @@
         <v>369.75054</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1691.05412</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1559.13986</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1068.817</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>171.3892</v>
@@ -2189,13 +2250,18 @@
         <v>355.98069</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>227.91341</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>228.12806</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>249.672</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>15.71647</v>
@@ -2228,13 +2294,18 @@
         <v>3.6582</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>28.15155</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>34.03265</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>27.815</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>0</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0.01257</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>18.49809</v>
@@ -2345,13 +2426,18 @@
         <v>352.32229</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>143.06259</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>137.39609</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>215.778</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>3.44178</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>133.72029</v>
@@ -2462,13 +2558,18 @@
         <v>0.0002</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>56.69927</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>56.69932</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>6.079</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>407.11274</v>
@@ -2477,13 +2578,13 @@
         <v>545.0404299999999</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>991.9751099999999</v>
+        <v>991.97511</v>
       </c>
       <c r="F44" s="47" t="n">
         <v>1090.87422</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>924.17404</v>
+        <v>924.58063</v>
       </c>
       <c r="H44" s="47" t="n">
         <v>1347.3585</v>
@@ -2501,28 +2602,33 @@
         <v>1136.04166</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2023.08032</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>2030.17712</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>2797.601</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>371.53159</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>475.57194</v>
+        <v>475.5719399999999</v>
       </c>
       <c r="E45" s="48" t="n">
         <v>910.60855</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>968.1546900000002</v>
+        <v>968.1546900000001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>860.47016</v>
+        <v>860.87675</v>
       </c>
       <c r="H45" s="48" t="n">
         <v>1284.87375</v>
@@ -2540,13 +2646,18 @@
         <v>1069.39636</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>2009.17182</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2016.26862</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>2682.247</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>35.58115</v>
@@ -2561,7 +2672,7 @@
         <v>122.71953</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>63.70388000000001</v>
+        <v>63.70388</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>62.48475</v>
@@ -2581,14 +2692,19 @@
       <c r="M46" s="48" t="n">
         <v>13.9085</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>115.354</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>6003.42852</v>
+        <v>6003.428519999999</v>
       </c>
       <c r="D47" s="47" t="n">
         <v>5914.317770000001</v>
@@ -2597,10 +2713,10 @@
         <v>10059.15627</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>11015.87243</v>
+        <v>11063.74475</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>9576.35282</v>
+        <v>9769.094129999999</v>
       </c>
       <c r="H47" s="47" t="n">
         <v>10945.61744</v>
@@ -2609,22 +2725,27 @@
         <v>3897.907</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>5803.36261</v>
+        <v>5803.362609999999</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>7767.89799</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>8181.217549999999</v>
+        <v>8164.55573</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>2385.27413</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>3440.2549</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-14319.051</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>751.9071100000001</v>
@@ -2657,13 +2778,18 @@
         <v>2106.60523</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1267.70431</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1314.63376</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1569.989</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>33.99496</v>
@@ -2698,14 +2824,19 @@
       <c r="M49" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>717.9121500000001</v>
+        <v>717.91215</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>297.25839</v>
@@ -2714,7 +2845,7 @@
         <v>553.58622</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>472.64107</v>
+        <v>472.6410700000001</v>
       </c>
       <c r="G50" s="48" t="n">
         <v>561.4204100000001</v>
@@ -2735,19 +2866,24 @@
         <v>2101.41304</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1267.70431</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1314.63376</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1569.989</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>720.27427</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>569.14385</v>
+        <v>569.1438499999999</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>7860.27144</v>
@@ -2765,22 +2901,27 @@
         <v>232.10227</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>870.8681100000001</v>
+        <v>870.86811</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>485.0417499999999</v>
+        <v>485.04175</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>2165.73632</v>
+        <v>2165.97207</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>3563.59608</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>4756.49072</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1245.204</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>237.35911</v>
@@ -2852,13 +2998,18 @@
         <v>60.2004</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1125.78934</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1105.85655</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>5.203</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>482.91516</v>
@@ -2882,22 +3033,27 @@
         <v>117.42761</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>869.0546600000001</v>
+        <v>869.05466</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>476.74826</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>2105.53592</v>
+        <v>2105.77167</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>2437.80674</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>3650.63417</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1240.001</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>6035.06136</v>
@@ -2909,10 +3065,10 @@
         <v>2762.30705</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>10893.42337</v>
+        <v>10941.29569</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>9497.36197</v>
+        <v>9690.103279999999</v>
       </c>
       <c r="H55" s="47" t="n">
         <v>7838.76725</v>
@@ -2927,28 +3083,33 @@
         <v>8552.00086</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>8122.08646</v>
+        <v>8105.18889</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>89.38235999999986</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-1.602060000000522</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-13994.266</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>895.17264</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>927.14523</v>
+        <v>927.1452300000001</v>
       </c>
       <c r="E56" s="47" t="n">
         <v>1404.25069</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>1935.30601</v>
+        <v>1944.88047</v>
       </c>
       <c r="G56" s="47" t="n">
         <v>1955.35283</v>
@@ -2966,31 +3127,36 @@
         <v>1923.45452</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>3791.60166</v>
+        <v>3791.62692</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>2052.92468</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>2086.99681</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1796.43</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>5139.88872</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>4715.287080000001</v>
+        <v>4715.28708</v>
       </c>
       <c r="E57" s="47" t="n">
         <v>1358.05636</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>8958.11736</v>
+        <v>8996.415219999999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>7542.009140000001</v>
+        <v>7734.75045</v>
       </c>
       <c r="H57" s="47" t="n">
         <v>5974.185759999999</v>
@@ -3002,16 +3168,19 @@
         <v>4255.94613</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>6628.54634</v>
+        <v>6628.546339999999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>4330.4848</v>
+        <v>4313.561970000001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-1963.542319999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-2088.59887</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-15790.696</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>163</v>
@@ -3041,10 +3213,10 @@
         <v>218</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H59" s="35" t="n">
         <v>174</v>
@@ -3053,19 +3225,22 @@
         <v>94</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>127</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>152</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>